--- a/30Missions.xlsx
+++ b/30Missions.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magneton\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="11475" windowHeight="7230" firstSheet="8" activeTab="10"/>
   </bookViews>
@@ -432,12 +437,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -476,6 +481,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -524,7 +532,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -556,9 +564,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,6 +599,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -765,28 +775,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL38"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection sqref="A1:AL38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -902,7 +912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1018,7 +1028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1134,7 +1144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1250,7 +1260,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
@@ -1366,7 +1376,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1482,7 +1492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>19</v>
       </c>
@@ -1598,7 +1608,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>19</v>
       </c>
@@ -1714,7 +1724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1830,7 +1840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1946,7 +1956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>19</v>
       </c>
@@ -2062,7 +2072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15</v>
       </c>
@@ -2178,7 +2188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>27</v>
       </c>
@@ -2294,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -2410,7 +2420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>36</v>
       </c>
@@ -2526,7 +2536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31</v>
       </c>
@@ -2642,7 +2652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2758,7 +2768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>29</v>
       </c>
@@ -2874,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24</v>
       </c>
@@ -2990,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
@@ -3106,7 +3116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3222,7 +3232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>27</v>
       </c>
@@ -3338,7 +3348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>41</v>
       </c>
@@ -3454,7 +3464,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>26</v>
       </c>
@@ -3570,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>29</v>
       </c>
@@ -3686,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31</v>
       </c>
@@ -3802,7 +3812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>35</v>
       </c>
@@ -3918,7 +3928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>15</v>
       </c>
@@ -4034,7 +4044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>21</v>
       </c>
@@ -4150,7 +4160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
@@ -4266,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14</v>
       </c>
@@ -4382,7 +4392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>19</v>
       </c>
@@ -4498,7 +4508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -4614,7 +4624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4730,7 +4740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>26</v>
       </c>
@@ -4846,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -4962,7 +4972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -5078,7 +5088,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>26</v>
       </c>
@@ -5200,16 +5210,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E53"/>
+      <selection activeCell="A3" sqref="A3:E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -5226,7 +5236,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -5243,58 +5253,58 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>8</v>
       </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5305,83 +5315,83 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>14.25</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>14.270833333333334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>16.104166666666668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>16.104166666666668</v>
+      </c>
+      <c r="E7">
+        <v>17.104166666666668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>14.270833333333334</v>
-      </c>
-      <c r="E7">
-        <v>16.020833333333336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>16.020833333333336</v>
-      </c>
       <c r="E8">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>16.5</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>17.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="E10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5390,32 +5400,32 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="E11">
-        <v>9.1875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>8.5902777777777786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>9.1875</v>
+        <v>8.5902777777777786</v>
       </c>
       <c r="E12">
-        <v>10.4375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>9.5902777777777786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -5424,287 +5434,287 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.4375</v>
+        <v>9.5902777777777786</v>
       </c>
       <c r="E13">
-        <v>10.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>9.7569444444444446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>9.7569444444444446</v>
+      </c>
+      <c r="E14">
+        <v>10.756944444444445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>10.756944444444445</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
         <v>12</v>
       </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>10.75</v>
-      </c>
-      <c r="E14">
-        <v>11.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>11.75</v>
-      </c>
-      <c r="E15">
-        <v>11.902777777777779</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>11.902777777777779</v>
-      </c>
-      <c r="E16">
-        <v>12.902777777777779</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>12.201388888888889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>12.201388888888889</v>
       </c>
       <c r="E18">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>13.201388888888889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>4</v>
       </c>
-      <c r="D19">
-        <v>7.5</v>
-      </c>
-      <c r="E19">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
+      <c r="B20">
         <v>3</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
       <c r="C20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>8.6527777777777786</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>12.5</v>
+      </c>
+      <c r="E22">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>7.75</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>9.0486111111111107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
         <v>26</v>
       </c>
-      <c r="C21">
+      <c r="C27">
         <v>5</v>
       </c>
-      <c r="D21">
-        <v>8.6527777777777786</v>
-      </c>
-      <c r="E21">
-        <v>10.152777777777779</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>10.152777777777779</v>
-      </c>
-      <c r="E22">
-        <v>10.368055555555557</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23">
-        <v>10.368055555555557</v>
-      </c>
-      <c r="E23">
-        <v>11.368055555555557</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24">
-        <v>33</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24">
-        <v>11.368055555555557</v>
-      </c>
-      <c r="E24">
-        <v>12.368055555555557</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>12.368055555555557</v>
-      </c>
-      <c r="E25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26">
-        <v>34</v>
-      </c>
-      <c r="C26">
+      <c r="D27">
+        <v>9.0486111111111107</v>
+      </c>
+      <c r="E27">
+        <v>10.548611111111111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>5</v>
       </c>
-      <c r="D26">
-        <v>13</v>
-      </c>
-      <c r="E26">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>10.548611111111111</v>
+      </c>
+      <c r="E28">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>12</v>
-      </c>
-      <c r="E28">
-        <v>12.201388888888889</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <v>25</v>
-      </c>
       <c r="C29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>12.201388888888889</v>
+        <v>10.75</v>
       </c>
       <c r="E29">
-        <v>13.201388888888889</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5713,15 +5723,15 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>13.201388888888889</v>
+        <v>11.75</v>
       </c>
       <c r="E30">
-        <v>13.277777777777779</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B31">
         <v>29</v>
@@ -5730,302 +5740,302 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <v>13.277777777777779</v>
+        <v>12.25</v>
       </c>
       <c r="E31">
-        <v>14.527777777777779</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>13.5</v>
       </c>
       <c r="E32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>13.5</v>
+        <v>13.75</v>
       </c>
       <c r="E33">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="E34">
-        <v>14.5625</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
       <c r="B35">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>14.5625</v>
+        <v>15</v>
       </c>
       <c r="E35">
-        <v>15.8125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>15.131944444444445</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>15.8125</v>
+        <v>15.131944444444445</v>
       </c>
       <c r="E36">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>16.131944444444443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
       <c r="B37">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>16.131944444444443</v>
       </c>
       <c r="E37">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>16.263888888888886</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>17</v>
+        <v>16.263888888888886</v>
       </c>
       <c r="E38">
-        <v>17.097222222222221</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>17.263888888888886</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
       <c r="B39">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>17.097222222222221</v>
+        <v>17.263888888888886</v>
       </c>
       <c r="E39">
-        <v>18.347222222222221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>17.395833333333329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>18.347222222222221</v>
+        <v>17.395833333333329</v>
       </c>
       <c r="E40">
-        <v>18.423611111111111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>18.645833333333329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
       <c r="B41">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>18.423611111111111</v>
+        <v>18.645833333333329</v>
       </c>
       <c r="E41">
-        <v>19.423611111111111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>18.729166666666661</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D42">
-        <v>19.423611111111111</v>
+        <v>18.729166666666661</v>
       </c>
       <c r="E42">
-        <v>19.6875</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>19.979166666666661</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>15</v>
+      </c>
+      <c r="C43">
         <v>5</v>
       </c>
-      <c r="B43">
-        <v>5</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
       <c r="D43">
-        <v>19.6875</v>
+        <v>13.25</v>
       </c>
       <c r="E43">
-        <v>27.6875</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>6</v>
       </c>
       <c r="B44">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>14.25</v>
       </c>
       <c r="E44">
-        <v>15.25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>14.340277777777779</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>6</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>15.25</v>
+        <v>14.340277777777779</v>
       </c>
       <c r="E45">
-        <v>15.354166666666666</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>15.340277777777779</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>6</v>
       </c>
       <c r="B46">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>15.354166666666666</v>
+        <v>15.340277777777779</v>
       </c>
       <c r="E46">
-        <v>16.354166666666664</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>15.493055555555557</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
       <c r="B47">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>16.354166666666664</v>
+        <v>15.493055555555557</v>
       </c>
       <c r="E47">
-        <v>17.354166666666664</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>16.493055555555557</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
       <c r="B48">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>5</v>
       </c>
       <c r="D48">
-        <v>17.354166666666664</v>
+        <v>15.340277777777779</v>
       </c>
       <c r="E48">
-        <v>18.354166666666664</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>17.090277777777779</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
@@ -6036,78 +6046,265 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>18.354166666666664</v>
+        <v>17.090277777777779</v>
       </c>
       <c r="E49">
-        <v>18.444444444444443</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>17.270833333333336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6</v>
       </c>
       <c r="B50">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50">
-        <v>18.444444444444443</v>
+        <v>17.270833333333336</v>
       </c>
       <c r="E50">
-        <v>19.444444444444443</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>18.270833333333336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>15.25</v>
+        <v>18.270833333333336</v>
       </c>
       <c r="E51">
-        <v>16.25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>16.25</v>
+        <v>20</v>
       </c>
       <c r="E52">
-        <v>16.326388888888889</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>7</v>
       </c>
       <c r="B53">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>14.25</v>
+      </c>
+      <c r="E53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>16</v>
+      </c>
+      <c r="E54">
+        <v>16.194444444444443</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>23</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>16.194444444444443</v>
+      </c>
+      <c r="E55">
+        <v>17.944444444444443</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>17.944444444444443</v>
+      </c>
+      <c r="E56">
+        <v>18.236111111111111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>18.236111111111111</v>
+      </c>
+      <c r="E57">
+        <v>26.236111111111111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>22</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>15.25</v>
+      </c>
+      <c r="E58">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>8</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>16.5</v>
+      </c>
+      <c r="E59">
+        <v>16.583333333333332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>18</v>
+      </c>
+      <c r="C60">
         <v>4</v>
       </c>
-      <c r="D53">
-        <v>16.326388888888889</v>
-      </c>
-      <c r="E53">
-        <v>17.326388888888889</v>
+      <c r="D60">
+        <v>16.583333333333332</v>
+      </c>
+      <c r="E60">
+        <v>17.583333333333332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>19</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>17.25</v>
+      </c>
+      <c r="E61">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>17.583333333333332</v>
+      </c>
+      <c r="E62">
+        <v>18.583333333333332</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>18.583333333333332</v>
+      </c>
+      <c r="E63">
+        <v>18.645833333333332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>21</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>18.645833333333332</v>
+      </c>
+      <c r="E64">
+        <v>19.645833333333332</v>
       </c>
     </row>
   </sheetData>
@@ -6116,45 +6313,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection sqref="A1:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -6162,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -6170,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -6187,7 +6384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -6204,7 +6401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -6212,7 +6409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -6220,7 +6417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -6228,7 +6425,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -6236,7 +6433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -6244,7 +6441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -6252,7 +6449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -6260,12 +6457,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="42.75">
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -6300,7 +6497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -6335,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -6370,7 +6567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -6405,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -6440,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -6475,7 +6672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -6510,12 +6707,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>6</v>
       </c>
@@ -6535,7 +6732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -6558,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -6581,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -6604,7 +6801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -6627,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -6650,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -6679,16 +6876,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="42.75">
+    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -6747,7 +6944,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -6806,7 +7003,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6856,7 +7053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6906,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6956,7 +7153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7006,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7056,7 +7253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7106,7 +7303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -7156,7 +7353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -7212,16 +7409,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="57">
+    <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -7250,7 +7447,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -7279,7 +7476,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -7308,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -7337,7 +7534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -7366,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -7395,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -7424,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -7453,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -7482,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -7511,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -7540,7 +7737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -7569,7 +7766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -7598,7 +7795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -7627,7 +7824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -7656,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -7685,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -7714,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -7749,16 +7946,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="42.75">
+    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -7817,7 +8014,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -7876,7 +8073,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7935,7 +8132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7994,7 +8191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8053,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8112,7 +8309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8171,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8230,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8289,7 +8486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8354,16 +8551,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:W40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="57">
+    <row r="1" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -8434,7 +8631,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -8505,7 +8702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8576,7 +8773,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8647,7 +8844,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8718,7 +8915,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8789,7 +8986,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8860,7 +9057,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8931,7 +9128,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -9002,7 +9199,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -9073,7 +9270,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -9144,7 +9341,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -9215,7 +9412,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -9286,7 +9483,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -9357,7 +9554,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -9428,7 +9625,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -9499,7 +9696,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -9570,7 +9767,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -9641,7 +9838,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -9712,7 +9909,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -9783,7 +9980,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -9854,7 +10051,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -9925,7 +10122,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -9996,7 +10193,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -10067,7 +10264,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -10138,7 +10335,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -10209,7 +10406,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -10280,7 +10477,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -10351,7 +10548,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -10422,7 +10619,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -10493,7 +10690,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -10564,7 +10761,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -10635,7 +10832,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -10706,7 +10903,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -10777,7 +10974,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -10848,7 +11045,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -10919,7 +11116,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -10990,7 +11187,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -11061,7 +11258,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -11132,7 +11329,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -11209,16 +11406,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5">
+    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>104</v>
       </c>
@@ -11238,7 +11435,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -11258,7 +11455,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11278,7 +11475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -11298,7 +11495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -11318,7 +11515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -11338,7 +11535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -11358,7 +11555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -11378,7 +11575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -11398,7 +11595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -11418,7 +11615,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -11438,7 +11635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -11458,7 +11655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -11478,7 +11675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -11498,7 +11695,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -11518,7 +11715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -11538,7 +11735,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -11558,7 +11755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -11578,7 +11775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
@@ -11598,7 +11795,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -11618,7 +11815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8</v>
       </c>
@@ -11638,7 +11835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -11658,7 +11855,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -11678,7 +11875,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -11698,7 +11895,7 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>18</v>
       </c>
@@ -11718,7 +11915,7 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
@@ -11738,7 +11935,7 @@
         <v>16.75</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>18</v>
       </c>
@@ -11758,7 +11955,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>18</v>
       </c>
@@ -11778,7 +11975,7 @@
         <v>16.75</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>18</v>
       </c>
@@ -11798,7 +11995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>19</v>
       </c>
@@ -11818,7 +12015,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20</v>
       </c>
@@ -11838,7 +12035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>21</v>
       </c>
@@ -11858,7 +12055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24</v>
       </c>
@@ -11878,7 +12075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>25</v>
       </c>
@@ -11898,7 +12095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>25</v>
       </c>
@@ -11918,7 +12115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>25</v>
       </c>
@@ -11938,7 +12135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>28</v>
       </c>
@@ -11958,7 +12155,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>30</v>
       </c>
@@ -11978,7 +12175,7 @@
         <v>16.75</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
